--- a/fifa21DB.xlsx
+++ b/fifa21DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,24 @@
   </si>
   <si>
     <t>Moose</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -420,16 +438,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -437,16 +455,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -454,16 +472,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -471,16 +489,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -488,16 +506,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -505,16 +523,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -522,16 +540,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -539,16 +557,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -556,16 +574,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -573,16 +591,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -590,16 +608,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -607,16 +625,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -624,16 +642,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -641,16 +659,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -658,16 +676,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -675,16 +693,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -692,16 +710,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -709,16 +727,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -726,16 +744,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -743,16 +761,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -760,16 +778,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -777,16 +795,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -794,16 +812,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -811,16 +829,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -828,16 +846,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
@@ -845,16 +863,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -862,16 +880,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -879,16 +897,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -896,16 +914,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
@@ -913,16 +931,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -930,16 +948,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -947,16 +965,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
